--- a/dados/motor.shop.xlsx
+++ b/dados/motor.shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:46210092#searchVariation=MLB24834408&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:46210092#searchVariation=MLB24834408&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:46210092#searchVariation=MLB22144397&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:46210092#searchVariation=MLB22144397&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:46210092#searchVariation=MLB21562641&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:46210092#searchVariation=MLB21562641&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -546,17 +586,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:46210092#searchVariation=MLB27685629&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:46210092#searchVariation=MLB27685629&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:46210092#searchVariation=MLB28557249&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:46210092#searchVariation=MLB28557249&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -596,17 +648,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-3-equalizador-balanceador-para-banco-de-baterias-jfa-12v24v/p/MLB32314837?pdp_filters=seller_id:46210092#searchVariation=MLB32314837&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-3-equalizador-balanceador-para-banco-de-baterias-jfa-12v24v/p/MLB32314837?pdp_filters=seller_id:46210092#searchVariation=MLB32314837&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -621,17 +679,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:46210092#searchVariation=MLB28961390&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:46210092#searchVariation=MLB28961390&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -646,17 +710,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:46210092#searchVariation=MLB21392652&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:46210092#searchVariation=MLB21392652&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -671,17 +745,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:46210092#searchVariation=MLB34210379&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:46210092#searchVariation=MLB34210379&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -696,17 +776,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:46210092#searchVariation=MLB21348561&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:46210092#searchVariation=MLB21348561&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -721,17 +811,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:46210092#searchVariation=MLB23456525&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:46210092#searchVariation=MLB23456525&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -746,17 +846,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:46210092#searchVariation=MLB35970528&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:46210092#searchVariation=MLB35970528&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
@@ -771,524 +877,674 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:46210092#searchVariation=MLB27156459&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:46210092#searchVariation=MLB27156459&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+          <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1942</v>
+        <v>1957</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:46210092#searchVariation=MLB27462343&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:46210092#searchVariation=MLB32974100&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1957</v>
+        <v>61.19</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:46210092#searchVariation=MLB32974100&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=7ceb172f-6dcb-4abc-a6a0-22366fd36db2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:46210092#searchVariation=MLB28687615&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=c481856e-1c7a-4c6a-9691-7892c06d10f3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Equalizador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.19</v>
+        <v>169.9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:46210092#searchVariation=MLB28687615&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=0ac58ecc-2bee-48eb-8421-92fea42e8d38</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3513500757-equalizador-para-banco-de-baterias-jfa-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc481856e-1c7a-4c6a-9691-7892c06d10f3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Equalizador Para Banco De Baterias - Jfa</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>169.9</v>
+        <v>499.46</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3513500757-equalizador-para-banco-de-baterias-jfa-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ac58ecc-2bee-48eb-8421-92fea42e8d38</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3519002057-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc481856e-1c7a-4c6a-9691-7892c06d10f3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>499.46</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3519002057-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ac58ecc-2bee-48eb-8421-92fea42e8d38</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3593548605-fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc481856e-1c7a-4c6a-9691-7892c06d10f3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa</t>
+          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>694.8200000000001</v>
+        <v>87.91</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3593548605-fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ac58ecc-2bee-48eb-8421-92fea42e8d38</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173714376-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc481856e-1c7a-4c6a-9691-7892c06d10f3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+          <t>Fonte Caixa Bob Jfa Carregador 90a Bivolt</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>87.91</v>
+        <v>443.07</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173714376-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0ac58ecc-2bee-48eb-8421-92fea42e8d38</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4628864714-fonte-caixa-bob-jfa-carregador-90a-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Caixa Bob Jfa Carregador 90a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>443.07</v>
+        <v>499.46</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4628864714-fonte-caixa-bob-jfa-carregador-90a-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbfb4b23-3538-4927-b779-2aa3cd0c9648</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3519051321-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>499.46</v>
+        <v>1333</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3519051321-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbfb4b23-3538-4927-b779-2aa3cd0c9648</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604554374-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1333</v>
+        <v>364.95</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604554374-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbfb4b23-3538-4927-b779-2aa3cd0c9648</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546723221-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>364.95</v>
+        <v>1865</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546723221-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbfb4b23-3538-4927-b779-2aa3cd0c9648</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4605018752-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
+          <t>Inversor Jfa 5000w 48v 220v Senoidal 10000 Pico Lançamento</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1865</v>
+        <v>4785</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4605018752-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbfb4b23-3538-4927-b779-2aa3cd0c9648</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613314728-inversor-jfa-5000w-48v-220v-senoidal-10000-pico-lancamento-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Inversor Jfa 5000w 48v 220v Senoidal 10000 Pico Lançamento</t>
+          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4785</v>
+        <v>365</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613314728-inversor-jfa-5000w-48v-220v-senoidal-10000-pico-lancamento-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcbfb4b23-3538-4927-b779-2aa3cd0c9648</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4314067940-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v Off-grid Senoidal Pura </t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>365</v>
+        <v>1830</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4314067940-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660404065-inversor-jfa-2000w-24v-220v-off-grid-senoidal-pura-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v Off-grid Senoidal Pura </t>
+          <t>Inversor Jfa 5000w 48v 220v Onda Senoidal Pura 10000 Pico</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1830</v>
+        <v>4639</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660404065-inversor-jfa-2000w-24v-220v-off-grid-senoidal-pura-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613246052-inversor-jfa-5000w-48v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Inversor Jfa 5000w 48v 220v Onda Senoidal Pura 10000 Pico</t>
+          <t>Inversor Jfa 2000w 12v 220v Onda Senoidal Pura Lançamento</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4639</v>
+        <v>2174</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613246052-inversor-jfa-5000w-48v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3659563041-inversor-jfa-2000w-12v-220v-onda-senoidal-pura-lancamento-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Inversor Jfa 2000w 12v 220v Onda Senoidal Pura Lançamento</t>
+          <t>Inversor Off-grid Senoidal Pura 1500w - 12v - 127v Jfa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2174</v>
+        <v>1913</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659563041-inversor-jfa-2000w-12v-220v-onda-senoidal-pura-lancamento-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604993590-inversor-off-grid-senoidal-pura-1500w-12v-127v-jfa-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Inversor Off-grid Senoidal Pura 1500w - 12v - 127v Jfa</t>
+          <t>Inversor Jfa 5000w 24v 220v Onda Senoidal Pura 10000 Pico</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1913</v>
+        <v>4828</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604993590-inversor-off-grid-senoidal-pura-1500w-12v-127v-jfa-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613534640-inversor-jfa-5000w-24v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Inversor Jfa 5000w 24v 220v Onda Senoidal Pura 10000 Pico</t>
+          <t xml:space="preserve">Inversor Jfa 1000w 12v 110v Onda Senoidal Puro </t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4828</v>
+        <v>1333</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613534640-inversor-jfa-5000w-24v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604532376-inversor-jfa-1000w-12v-110v-onda-senoidal-puro-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 1000w 12v 110v Onda Senoidal Puro </t>
+          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1333</v>
+        <v>4639</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604532376-inversor-jfa-1000w-12v-110v-onda-senoidal-puro-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613508580-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 5000w 24v 220v</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1296,567 +1552,725 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613508580-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3661920303-inversor-jfa-off-grid-senoidal-pura-5000w-24v-220v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 5000w 24v 220v</t>
+          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4639</v>
+        <v>3114</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3661920303-inversor-jfa-off-grid-senoidal-pura-5000w-24v-220v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660529949-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
+          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v 4000w Pico Senoidal Pura </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3114</v>
+        <v>2096</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660529949-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660469185-inversor-jfa-2000w-24v-220v-4000w-pico-senoidal-pura-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v 4000w Pico Senoidal Pura </t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2096</v>
+        <v>2174</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660469185-inversor-jfa-2000w-24v-220v-4000w-pico-senoidal-pura-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3659627161-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+          <t>Inversor Onda Senoidal Jfa 1000w 12v 220v</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2174</v>
+        <v>1333</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659627161-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658478655-inversor-onda-senoidal-jfa-1000w-12v-220v-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Jfa 1000w 12v 220v</t>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1333</v>
+        <v>900</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658478655-inversor-onda-senoidal-jfa-1000w-12v-220v-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db91b7ba8-2163-4cde-91ef-d1e77633451f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4631283716-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>900</v>
+        <v>845.87</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4631283716-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4846575134-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>845.87</v>
+        <v>749.65</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4846575134-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3762938133-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Bivolt</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.65</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3762938133-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3735118197-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Bivolt</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>694.8200000000001</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3735118197-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3758622709-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>674.6799999999999</v>
+        <v>4828</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3758622709-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613494874-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4828</v>
+        <v>390.43</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613494874-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3622207699-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>390.43</v>
+        <v>1865</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3622207699-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658614207-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
+          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1865</v>
+        <v>2995</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658614207-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660516741-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Inversor Jfa 2000w 24v 127v Onda Senoidal Novo</t>
+          <t xml:space="preserve">Inversor Jfa 1000w 12v 120v Senoidal Puro </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1957</v>
+        <v>1246</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4610267938-inversor-jfa-2000w-24v-127v-onda-senoidal-novo-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604531320-inversor-jfa-1000w-12v-120v-senoidal-puro-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
+          <t xml:space="preserve">Equalizador Jfa Para Banco De Baterias </t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2995</v>
+        <v>188.78</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660516741-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4392256152-equalizador-jfa-para-banco-de-baterias-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 1000w 12v 120v Senoidal Puro </t>
+          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1246</v>
+        <v>1913</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604531320-inversor-jfa-1000w-12v-120v-senoidal-puro-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658600959-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Equalizador Jfa Para Banco De Baterias </t>
+          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>188.78</v>
+        <v>66.2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4392256152-equalizador-jfa-para-banco-de-baterias-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da099548b-c4a2-4d70-9528-e3613419253a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3498708933-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
+          <t>Inversor Jfa Senoidal Off-grid 1000w 12v 220v</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1913</v>
+        <v>1246</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658600959-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658452089-inversor-jfa-senoidal-off-grid-1000w-12v-220v-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+          <t xml:space="preserve">Inversor Jfa Senoidal Pura 1500w 12v 220v </t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>66.2</v>
+        <v>1957</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3498708933-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658538181-inversor-jfa-senoidal-pura-1500w-12v-220v-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Off-grid 1000w 12v 220v</t>
+          <t>Fonte Jfa Carregador 90a Caixa Bob Storm Bivolt</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1246</v>
+        <v>422.93</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658452089-inversor-jfa-senoidal-off-grid-1000w-12v-220v-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4628824232-fonte-jfa-carregador-90a-caixa-bob-storm-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa Senoidal Pura 1500w 12v 220v </t>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1957</v>
+        <v>100.98</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658538181-inversor-jfa-senoidal-pura-1500w-12v-220v-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546924669-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador 90a Caixa Bob Storm Bivolt</t>
+          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>422.93</v>
+        <v>1913</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4628824232-fonte-jfa-carregador-90a-caixa-bob-storm-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604929342-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
@@ -1871,667 +2285,861 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546924669-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173557934-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w 24v 220v4000w Pico</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1913</v>
+        <v>2027</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604929342-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660454165-inversor-jfa-off-grid-senoidal-pura-2000w-24v-220v4000w-pico-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.98</v>
+        <v>805.59</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173557934-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4835436154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w 24v 220v4000w Pico</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2027</v>
+        <v>90.78</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660454165-inversor-jfa-off-grid-senoidal-pura-2000w-24v-220v4000w-pico-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546900093-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>805.59</v>
+        <v>78.91</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4835436154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173662894-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>90.78</v>
+        <v>787.5</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546900093-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4631233456-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador  Bivolt</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>78.91</v>
+        <v>624.33</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173662894-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4775556458-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>787.5</v>
+        <v>61.19</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4631233456-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3498732993-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador  Bivolt</t>
+          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>624.33</v>
+        <v>66.2</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4775556458-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546876507-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>61.19</v>
+        <v>704.89</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3498732993-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3762990307-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>66.2</v>
+        <v>805.59</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546876507-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4846626480-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+          <t>Inversor Jfa Onda Senoidal Pura 5000w 48v 220v 10000 Pico</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>704.89</v>
+        <v>4698</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3762990307-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3661925465-inversor-jfa-onda-senoidal-pura-5000w-48v-220v-10000-pico-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>805.59</v>
+        <v>1957</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4846626480-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3659639823-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Inversor Jfa Onda Senoidal Pura 5000w 48v 220v 10000 Pico</t>
+          <t xml:space="preserve">Inversor Jfa Off-grid Senoidal Pura 1500w 12v  127v </t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4698</v>
+        <v>1865</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3661925465-inversor-jfa-onda-senoidal-pura-5000w-48v-220v-10000-pico-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a241324-fd8d-4389-91f0-b4e944ea144a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604994186-inversor-jfa-off-grid-senoidal-pura-1500w-12v-127v-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+          <t>Inversor Jfa Senoidal Pura 3000w  48v 127v 6000w Pico</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1957</v>
+        <v>3114</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659639823-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d2662cb-caeb-41eb-a860-b9d7a63966ab</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660491143-inversor-jfa-senoidal-pura-3000w-48v-127v-6000w-pico-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 24v - 127v</t>
+          <t>Inversor Jfa Senoidal Pura 1500w 12v 220v Novidade</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1957</v>
+        <v>1865</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4610382764-inversor-jfa-off-grid-senoidal-pura-2000w-24v-127v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d2662cb-caeb-41eb-a860-b9d7a63966ab</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658501179-inversor-jfa-senoidal-pura-1500w-12v-220v-novidade-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa Off-grid Senoidal Pura 1500w 12v  127v </t>
+          <t xml:space="preserve">Fonte Carregador Jfa Bob Storm 90a Bivolt Automático </t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1865</v>
+        <v>443.07</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604994186-inversor-jfa-off-grid-senoidal-pura-1500w-12v-127v-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d2662cb-caeb-41eb-a860-b9d7a63966ab</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438005978-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 3000w  48v 127v 6000w Pico</t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 5000w  48v 220v</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3114</v>
+        <v>4639</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660491143-inversor-jfa-senoidal-pura-3000w-48v-127v-6000w-pico-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d2662cb-caeb-41eb-a860-b9d7a63966ab</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613313594-inversor-jfa-off-grid-senoidal-pura-5000w-48v-220v-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 1500w 12v 220v Novidade</t>
+          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1865</v>
+        <v>1246</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658501179-inversor-jfa-senoidal-pura-1500w-12v-220v-novidade-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d2662cb-caeb-41eb-a860-b9d7a63966ab</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604464584-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa Bob Storm 90a Bivolt Automático </t>
+          <t>Inversor Jfa 1000w 12v 220v Onda Senoidal Pura</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>443.07</v>
+        <v>1245</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438005978-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d2662cb-caeb-41eb-a860-b9d7a63966ab</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658427329-inversor-jfa-1000w-12v-220v-onda-senoidal-pura-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 5000w  48v 220v</t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 3000w - 48v - 127v</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4639</v>
+        <v>2792</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613313594-inversor-jfa-off-grid-senoidal-pura-5000w-48v-220v-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d2662cb-caeb-41eb-a860-b9d7a63966ab</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660478461-inversor-jfa-off-grid-senoidal-pura-3000w-48v-127v-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1246</v>
+        <v>390.43</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604464584-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d2662cb-caeb-41eb-a860-b9d7a63966ab</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4229575070-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Inversor Jfa 1000w 12v 220v Onda Senoidal Pura</t>
+          <t>Equalizador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1245</v>
+        <v>165</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658427329-inversor-jfa-1000w-12v-220v-onda-senoidal-pura-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d2662cb-caeb-41eb-a860-b9d7a63966ab</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3513538545-equalizador-para-banco-de-baterias-jfa-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0df87459-5d30-4d9a-9a2e-04d580a47f11</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 3000w - 48v - 127v</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2792</v>
+        <v>539.74</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660478461-inversor-jfa-off-grid-senoidal-pura-3000w-48v-127v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d2662cb-caeb-41eb-a860-b9d7a63966ab</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3623665729-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0df87459-5d30-4d9a-9a2e-04d580a47f11</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>390.43</v>
+        <v>539.74</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4229575070-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d2662cb-caeb-41eb-a860-b9d7a63966ab</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546735301-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0df87459-5d30-4d9a-9a2e-04d580a47f11</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Equalizador Para Banco De Baterias - Jfa</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>165</v>
+        <v>390.43</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3513538545-equalizador-para-banco-de-baterias-jfa-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1e35ed10-1e04-470a-8b33-47e47e998b36</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546761133-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbcb5e32a-aad2-4fd3-aa74-ad430f487597</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>539.74</v>
+        <v>372</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3623665729-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1e35ed10-1e04-470a-8b33-47e47e998b36</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3549015287-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbcb5e32a-aad2-4fd3-aa74-ad430f487597</t>
         </is>
       </c>
     </row>
@@ -2542,128 +3150,170 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>539.74</v>
+        <v>499.46</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546735301-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45404581-e213-44b8-94bb-22e4542f2c3e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4308666128-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbcb5e32a-aad2-4fd3-aa74-ad430f487597</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>390.43</v>
+        <v>499.46</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546761133-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45404581-e213-44b8-94bb-22e4542f2c3e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3623642835-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbcb5e32a-aad2-4fd3-aa74-ad430f487597</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>372</v>
+        <v>364.95</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3549015287-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45404581-e213-44b8-94bb-22e4542f2c3e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4512521482-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbcb5e32a-aad2-4fd3-aa74-ad430f487597</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>499.46</v>
+        <v>66.2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4308666128-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45404581-e213-44b8-94bb-22e4542f2c3e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546852783-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dadd007a5-b258-4b95-9140-2f66c2b2564d</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>499.46</v>
+        <v>66.2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3623642835-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45404581-e213-44b8-94bb-22e4542f2c3e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173652628-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dadd007a5-b258-4b95-9140-2f66c2b2564d</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2671,92 +3321,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4512521482-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D45404581-e213-44b8-94bb-22e4542f2c3e</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546852783-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88f91eef-4e8f-4b47-b169-c5c6c238a064</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173652628-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88f91eef-4e8f-4b47-b169-c5c6c238a064</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4229574640-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88f91eef-4e8f-4b47-b169-c5c6c238a064</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4229574640-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dadd007a5-b258-4b95-9140-2f66c2b2564d</t>
         </is>
       </c>
     </row>

--- a/dados/motor.shop.xlsx
+++ b/dados/motor.shop.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>624.33</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:46210092#searchVariation=MLB24834408&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:46210092#searchVariation=MLB24834408&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
@@ -511,14 +511,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>499.46</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:46210092#searchVariation=MLB22144397&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:46210092#searchVariation=MLB22144397&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
@@ -546,14 +546,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>422.93</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:46210092#searchVariation=MLB21562641&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:46210092#searchVariation=MLB21562641&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
@@ -581,13 +581,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>78.91</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:46210092#searchVariation=MLB27685629&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:46210092#searchVariation=MLB27685629&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
@@ -612,13 +612,13 @@
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>90.78</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:46210092#searchVariation=MLB28557249&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:46210092#searchVariation=MLB28557249&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
@@ -643,13 +643,13 @@
           <t>Kit 3 Equalizador Balanceador Para Banco De Baterias - Jfa 12v/24v</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>431</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-3-equalizador-balanceador-para-banco-de-baterias-jfa-12v24v/p/MLB32314837?pdp_filters=seller_id:46210092#searchVariation=MLB32314837&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/kit-3-equalizador-balanceador-para-banco-de-baterias-jfa-12v24v/p/MLB32314837?pdp_filters=seller_id:46210092#searchVariation=MLB32314837&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
@@ -674,13 +674,13 @@
           <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>87.91</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:46210092#searchVariation=MLB28961390&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:46210092#searchVariation=MLB28961390&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
@@ -705,14 +705,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>634.4</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -730,7 +730,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:46210092#searchVariation=MLB21392652&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:46210092#searchVariation=MLB21392652&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:46210092#searchVariation=MLB34210379&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:46210092#searchVariation=MLB34210379&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
@@ -771,14 +771,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>845.87</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -796,7 +796,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:46210092#searchVariation=MLB21348561&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:46210092#searchVariation=MLB21348561&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
@@ -806,14 +806,14 @@
           <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>364.95</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -831,25 +831,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:46210092#searchVariation=MLB23456525&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:46210092#searchVariation=MLB23456525&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1287</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -857,34 +861,30 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:46210092#searchVariation=MLB35970528&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:46210092#searchVariation=MLB27156459&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1287</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -892,12 +892,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:46210092#searchVariation=MLB27156459&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:46210092#searchVariation=MLB35970528&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
         </is>
       </c>
     </row>
@@ -907,13 +907,13 @@
           <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>1957</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:46210092#searchVariation=MLB32974100&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=068aeeba-231b-4e8b-b4b7-df6ef63a1a27</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:46210092#searchVariation=MLB32974100&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=58715a62-4794-42ca-ac44-b5c5a253de0f</t>
         </is>
       </c>
     </row>
@@ -938,13 +938,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:46210092#searchVariation=MLB28687615&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=c481856e-1c7a-4c6a-9691-7892c06d10f3</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:46210092#searchVariation=MLB28687615&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=58715a62-4794-42ca-ac44-b5c5a253de0f</t>
         </is>
       </c>
     </row>
@@ -969,13 +969,13 @@
           <t>Equalizador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>169.9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3513500757-equalizador-para-banco-de-baterias-jfa-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc481856e-1c7a-4c6a-9691-7892c06d10f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3513500757-equalizador-para-banco-de-baterias-jfa-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58715a62-4794-42ca-ac44-b5c5a253de0f</t>
         </is>
       </c>
     </row>
@@ -1000,14 +1000,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>499.46</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3519002057-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc481856e-1c7a-4c6a-9691-7892c06d10f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3519002057-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58715a62-4794-42ca-ac44-b5c5a253de0f</t>
         </is>
       </c>
     </row>
@@ -1035,14 +1035,14 @@
           <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1060,60 +1060,60 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3593548605-fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc481856e-1c7a-4c6a-9691-7892c06d10f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3593548605-fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58715a62-4794-42ca-ac44-b5c5a253de0f</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>87.91</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>342.95</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173714376-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc481856e-1c7a-4c6a-9691-7892c06d10f3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546723221-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58715a62-4794-42ca-ac44-b5c5a253de0f</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Caixa Bob Jfa Carregador 90a Bivolt</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>90.78</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1121,34 +1121,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4628864714-fonte-caixa-bob-jfa-carregador-90a-bivolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546900093-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9362bf9f-8689-4066-9d65-5a9fa0225f6e</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>87.91</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1156,30 +1152,34 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3519051321-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4173714376-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9362bf9f-8689-4066-9d65-5a9fa0225f6e</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1333</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Fonte Caixa Bob Jfa Carregador 90a Bivolt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1192,23 +1192,23 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604554374-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4628864714-fonte-caixa-bob-jfa-carregador-90a-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9362bf9f-8689-4066-9d65-5a9fa0225f6e</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>499.46</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1227,25 +1227,29 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546723221-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3519051321-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9362bf9f-8689-4066-9d65-5a9fa0225f6e</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1865</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1258,25 +1262,29 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4605018752-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604554374-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9362bf9f-8689-4066-9d65-5a9fa0225f6e</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Inversor Jfa 5000w 48v 220v Senoidal 10000 Pico Lançamento</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>4785</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1865</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1289,7 +1297,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613314728-inversor-jfa-5000w-48v-220v-senoidal-10000-pico-lancamento-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D621f7f26-579e-41d5-aa5f-7cb02ab64a38</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4605018752-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
@@ -1299,13 +1307,13 @@
           <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>365</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1320,23 +1328,23 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4314067940-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4314067940-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v Off-grid Senoidal Pura </t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1830</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Inversor Jfa 5000w 48v 220v Senoidal 10000 Pico Lançamento</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4785</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -1346,28 +1354,28 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660404065-inversor-jfa-2000w-24v-220v-off-grid-senoidal-pura-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613314728-inversor-jfa-5000w-48v-220v-senoidal-10000-pico-lancamento-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Inversor Jfa 5000w 48v 220v Onda Senoidal Pura 10000 Pico</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>4639</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v Off-grid Senoidal Pura </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1830</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1382,23 +1390,23 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613246052-inversor-jfa-5000w-48v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660404065-inversor-jfa-2000w-24v-220v-off-grid-senoidal-pura-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Inversor Jfa 2000w 12v 220v Onda Senoidal Pura Lançamento</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2174</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Inversor Jfa 5000w 48v 220v Onda Senoidal Pura 10000 Pico</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4639</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1408,28 +1416,28 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659563041-inversor-jfa-2000w-12v-220v-onda-senoidal-pura-lancamento-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613246052-inversor-jfa-5000w-48v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Inversor Off-grid Senoidal Pura 1500w - 12v - 127v Jfa</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1913</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t xml:space="preserve">Inversor Jfa 1000w 12v 110v Onda Senoidal Puro </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1333</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -1439,12 +1447,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604993590-inversor-off-grid-senoidal-pura-1500w-12v-127v-jfa-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604532376-inversor-jfa-1000w-12v-110v-onda-senoidal-puro-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
@@ -1454,13 +1462,13 @@
           <t>Inversor Jfa 5000w 24v 220v Onda Senoidal Pura 10000 Pico</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>4828</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1475,23 +1483,23 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613534640-inversor-jfa-5000w-24v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613534640-inversor-jfa-5000w-24v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 1000w 12v 110v Onda Senoidal Puro </t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1333</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Inversor Jfa 2000w 12v 220v Onda Senoidal Pura Lançamento</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2174</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1506,23 +1514,23 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604532376-inversor-jfa-1000w-12v-110v-onda-senoidal-puro-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3659563041-inversor-jfa-2000w-12v-220v-onda-senoidal-pura-lancamento-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>4639</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Inversor Off-grid Senoidal Pura 1500w - 12v - 127v Jfa</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1913</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
@@ -1537,25 +1545,29 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613508580-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604993590-inversor-off-grid-senoidal-pura-1500w-12v-127v-jfa-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 5000w 24v 220v</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>4639</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3114</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1563,28 +1575,28 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3661920303-inversor-jfa-off-grid-senoidal-pura-5000w-24v-220v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660529949-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3114</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v 4000w Pico Senoidal Pura </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2096</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
@@ -1599,23 +1611,23 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660529949-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660469185-inversor-jfa-2000w-24v-220v-4000w-pico-senoidal-pura-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v 4000w Pico Senoidal Pura </t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2096</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2174</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
@@ -1630,23 +1642,23 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660469185-inversor-jfa-2000w-24v-220v-4000w-pico-senoidal-pura-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3659627161-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2174</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Inversor Onda Senoidal Jfa 1000w 12v 220v</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1333</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1661,23 +1673,23 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659627161-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658478655-inversor-onda-senoidal-jfa-1000w-12v-220v-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Jfa 1000w 12v 220v</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1333</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>900</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
@@ -1692,25 +1704,29 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658478655-inversor-onda-senoidal-jfa-1000w-12v-220v-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D207a9d28-f9cf-405f-a0c7-6e66f4c8fe5b</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4631283716-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>900</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1723,27 +1739,27 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4631283716-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4846575134-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>749.65</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1758,25 +1774,29 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4846575134-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3762938133-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>749.65</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Bivolt</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1789,23 +1809,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3762938133-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3735118197-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Bivolt</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1824,29 +1844,25 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3735118197-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3758622709-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Equalizador Jfa Para Banco De Baterias </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>188.78</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1859,7 +1875,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3758622709-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4392256152-equalizador-jfa-para-banco-de-baterias-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
         </is>
       </c>
     </row>
@@ -1869,13 +1885,13 @@
           <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>4828</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1890,7 +1906,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613494874-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613494874-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
         </is>
       </c>
     </row>
@@ -1900,14 +1916,14 @@
           <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>390.43</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1925,7 +1941,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3622207699-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3622207699-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
         </is>
       </c>
     </row>
@@ -1935,13 +1951,13 @@
           <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>1865</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -1956,7 +1972,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658614207-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658614207-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
@@ -1966,15 +1982,19 @@
           <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>2995</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1987,7 +2007,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660516741-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660516741-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
@@ -1997,15 +2017,19 @@
           <t xml:space="preserve">Inversor Jfa 1000w 12v 120v Senoidal Puro </t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>1246</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2018,23 +2042,23 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604531320-inversor-jfa-1000w-12v-120v-senoidal-puro-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604531320-inversor-jfa-1000w-12v-120v-senoidal-puro-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Equalizador Jfa Para Banco De Baterias </t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>188.78</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1913</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
@@ -2044,30 +2068,34 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4392256152-equalizador-jfa-para-banco-de-baterias-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc57305af-1ebd-4c6d-866b-3ba2b8ce2085</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658600959-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1913</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>Fonte Jfa Carregador 90a Caixa Bob Storm Bivolt</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>422.93</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2080,7 +2108,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658600959-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4628824232-fonte-jfa-carregador-90a-caixa-bob-storm-bivolt-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
@@ -2090,13 +2118,13 @@
           <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -2111,7 +2139,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3498708933-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3498708933-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
@@ -2121,13 +2149,13 @@
           <t>Inversor Jfa Senoidal Off-grid 1000w 12v 220v</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
         <v>1246</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -2142,7 +2170,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658452089-inversor-jfa-senoidal-off-grid-1000w-12v-220v-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658452089-inversor-jfa-senoidal-off-grid-1000w-12v-220v-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
@@ -2152,13 +2180,13 @@
           <t xml:space="preserve">Inversor Jfa Senoidal Pura 1500w 12v 220v </t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>1957</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
@@ -2173,29 +2201,25 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658538181-inversor-jfa-senoidal-pura-1500w-12v-220v-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658538181-inversor-jfa-senoidal-pura-1500w-12v-220v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador 90a Caixa Bob Storm Bivolt</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>100.98</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2203,30 +2227,34 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4628824232-fonte-jfa-carregador-90a-caixa-bob-storm-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546924669-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2234,28 +2262,28 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546924669-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604929342-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1913</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>100.98</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -2265,28 +2293,28 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604929342-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4173557934-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w 24v 220v4000w Pico</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2027</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
@@ -2296,28 +2324,28 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173557934-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660454165-inversor-jfa-off-grid-senoidal-pura-2000w-24v-220v4000w-pico-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w 24v 220v4000w Pico</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2027</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>78.91</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
@@ -2332,7 +2360,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660454165-inversor-jfa-off-grid-senoidal-pura-2000w-24v-220v4000w-pico-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4173662894-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
@@ -2342,14 +2370,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
         <v>805.59</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2367,23 +2395,23 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4835436154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4835436154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>90.78</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>787.5</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
@@ -2398,25 +2426,29 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546900093-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4631233456-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>78.91</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador  Bivolt</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2429,23 +2461,23 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173662894-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4775556458-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>787.5</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>61.19</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -2460,29 +2492,25 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4631233456-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3498732993-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador  Bivolt</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2490,30 +2518,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4775556458-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546876507-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>704.89</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2526,25 +2558,29 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3498732993-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3762990307-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2552,28 +2588,28 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546876507-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4846626480-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4639</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
@@ -2588,29 +2624,25 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3762990307-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613508580-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Inversor Jfa Onda Senoidal Pura 5000w 48v 220v 10000 Pico</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>4698</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2618,28 +2650,28 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4846626480-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3661925465-inversor-jfa-onda-senoidal-pura-5000w-48v-220v-10000-pico-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Inversor Jfa Onda Senoidal Pura 5000w 48v 220v 10000 Pico</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>4698</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1957</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -2649,28 +2681,28 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3661925465-inversor-jfa-onda-senoidal-pura-5000w-48v-220v-10000-pico-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3659639823-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1957</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 5000w 24v 220v</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>4639</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
@@ -2685,7 +2717,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659639823-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca8407e3-bcdb-4751-991e-e74842acb2c1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3661920303-inversor-jfa-off-grid-senoidal-pura-5000w-24v-220v-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
@@ -2695,13 +2727,13 @@
           <t xml:space="preserve">Inversor Jfa Off-grid Senoidal Pura 1500w 12v  127v </t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
         <v>1865</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
@@ -2716,7 +2748,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604994186-inversor-jfa-off-grid-senoidal-pura-1500w-12v-127v-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604994186-inversor-jfa-off-grid-senoidal-pura-1500w-12v-127v-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
@@ -2726,15 +2758,19 @@
           <t>Inversor Jfa Senoidal Pura 3000w  48v 127v 6000w Pico</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
         <v>3114</v>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2747,7 +2783,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660491143-inversor-jfa-senoidal-pura-3000w-48v-127v-6000w-pico-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660491143-inversor-jfa-senoidal-pura-3000w-48v-127v-6000w-pico-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
@@ -2757,13 +2793,13 @@
           <t>Inversor Jfa Senoidal Pura 1500w 12v 220v Novidade</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
         <v>1865</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
@@ -2778,7 +2814,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658501179-inversor-jfa-senoidal-pura-1500w-12v-220v-novidade-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658501179-inversor-jfa-senoidal-pura-1500w-12v-220v-novidade-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
@@ -2788,14 +2824,14 @@
           <t xml:space="preserve">Fonte Carregador Jfa Bob Storm 90a Bivolt Automático </t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
         <v>443.07</v>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2813,7 +2849,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438005978-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438005978-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
@@ -2823,13 +2859,13 @@
           <t>Inversor Jfa Off-grid Senoidal Pura 5000w  48v 220v</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
         <v>4639</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
@@ -2844,7 +2880,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613313594-inversor-jfa-off-grid-senoidal-pura-5000w-48v-220v-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613313594-inversor-jfa-off-grid-senoidal-pura-5000w-48v-220v-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
         </is>
       </c>
     </row>
@@ -2854,15 +2890,19 @@
           <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
         <v>1246</v>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2875,7 +2915,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604464584-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604464584-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1e339ea-6743-47e8-9141-6ec4554644ba</t>
         </is>
       </c>
     </row>
@@ -2885,13 +2925,13 @@
           <t>Inversor Jfa 1000w 12v 220v Onda Senoidal Pura</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
         <v>1245</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
@@ -2906,7 +2946,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658427329-inversor-jfa-1000w-12v-220v-onda-senoidal-pura-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658427329-inversor-jfa-1000w-12v-220v-onda-senoidal-pura-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1e339ea-6743-47e8-9141-6ec4554644ba</t>
         </is>
       </c>
     </row>
@@ -2916,13 +2956,13 @@
           <t>Inversor Jfa Off-grid Senoidal Pura 3000w - 48v - 127v</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
         <v>2792</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
@@ -2937,7 +2977,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660478461-inversor-jfa-off-grid-senoidal-pura-3000w-48v-127v-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660478461-inversor-jfa-off-grid-senoidal-pura-3000w-48v-127v-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1e339ea-6743-47e8-9141-6ec4554644ba</t>
         </is>
       </c>
     </row>
@@ -2947,14 +2987,14 @@
           <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
         <v>390.43</v>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2972,7 +3012,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4229575070-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd261b960-f4e9-41e7-95f2-1bcca6c1a16d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4229575070-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1e339ea-6743-47e8-9141-6ec4554644ba</t>
         </is>
       </c>
     </row>
@@ -2982,13 +3022,13 @@
           <t>Equalizador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
         <v>165</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
@@ -3003,7 +3043,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3513538545-equalizador-para-banco-de-baterias-jfa-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0df87459-5d30-4d9a-9a2e-04d580a47f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3513538545-equalizador-para-banco-de-baterias-jfa-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1e339ea-6743-47e8-9141-6ec4554644ba</t>
         </is>
       </c>
     </row>
@@ -3013,14 +3053,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>539.74</v>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3038,7 +3078,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3623665729-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0df87459-5d30-4d9a-9a2e-04d580a47f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3623665729-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddac0b6eb-5886-4c3a-a61d-f710451ebaab</t>
         </is>
       </c>
     </row>
@@ -3048,14 +3088,14 @@
           <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
         <v>539.74</v>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3073,7 +3113,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546735301-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0df87459-5d30-4d9a-9a2e-04d580a47f11</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546735301-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddac0b6eb-5886-4c3a-a61d-f710451ebaab</t>
         </is>
       </c>
     </row>
@@ -3083,14 +3123,14 @@
           <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
         <v>390.43</v>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3108,7 +3148,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546761133-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbcb5e32a-aad2-4fd3-aa74-ad430f487597</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546761133-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddac0b6eb-5886-4c3a-a61d-f710451ebaab</t>
         </is>
       </c>
     </row>
@@ -3118,13 +3158,13 @@
           <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
         <v>372</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
@@ -3139,7 +3179,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3549015287-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbcb5e32a-aad2-4fd3-aa74-ad430f487597</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3549015287-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddac0b6eb-5886-4c3a-a61d-f710451ebaab</t>
         </is>
       </c>
     </row>
@@ -3149,14 +3189,14 @@
           <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
         <v>499.46</v>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3174,7 +3214,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4308666128-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbcb5e32a-aad2-4fd3-aa74-ad430f487597</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4308666128-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddac0b6eb-5886-4c3a-a61d-f710451ebaab</t>
         </is>
       </c>
     </row>
@@ -3184,14 +3224,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
         <v>499.46</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3209,7 +3249,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3623642835-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbcb5e32a-aad2-4fd3-aa74-ad430f487597</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3623642835-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8604aa18-b8aa-4a29-8dfe-a02256276d7e</t>
         </is>
       </c>
     </row>
@@ -3219,14 +3259,14 @@
           <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
         <v>364.95</v>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3244,7 +3284,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4512521482-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dbcb5e32a-aad2-4fd3-aa74-ad430f487597</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4512521482-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8604aa18-b8aa-4a29-8dfe-a02256276d7e</t>
         </is>
       </c>
     </row>
@@ -3254,13 +3294,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
@@ -3275,7 +3315,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546852783-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dadd007a5-b258-4b95-9140-2f66c2b2564d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546852783-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8604aa18-b8aa-4a29-8dfe-a02256276d7e</t>
         </is>
       </c>
     </row>
@@ -3285,13 +3325,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
@@ -3306,7 +3346,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173652628-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dadd007a5-b258-4b95-9140-2f66c2b2564d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4173652628-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8604aa18-b8aa-4a29-8dfe-a02256276d7e</t>
         </is>
       </c>
     </row>
@@ -3316,14 +3356,14 @@
           <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
         <v>364.95</v>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -3341,7 +3381,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4229574640-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dadd007a5-b258-4b95-9140-2f66c2b2564d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4229574640-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83812871-b756-485b-b589-46200806a508</t>
         </is>
       </c>
     </row>

--- a/dados/motor.shop.xlsx
+++ b/dados/motor.shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>624.33</v>
+        <v>499.46</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -501,23 +501,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:46210092#searchVariation=MLB24834408&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:46210092#searchVariation=MLB22144397&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>499.46</v>
+        <v>624.33</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:46210092#searchVariation=MLB22144397&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:46210092#searchVariation=MLB24834408&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>422.93</v>
+        <v>78.91</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,28 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:46210092#searchVariation=MLB21562641&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:46210092#searchVariation=MLB27685629&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78.91</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>422.93</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -602,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:46210092#searchVariation=MLB27685629&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:46210092#searchVariation=MLB21562641&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
@@ -614,13 +618,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>90.78</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -633,25 +641,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:46210092#searchVariation=MLB28557249&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:46210092#searchVariation=MLB28557249&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kit 3 Equalizador Balanceador Para Banco De Baterias - Jfa 12v/24v</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>431</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -664,14 +676,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-3-equalizador-balanceador-para-banco-de-baterias-jfa-12v24v/p/MLB32314837?pdp_filters=seller_id:46210092#searchVariation=MLB32314837&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:46210092#searchVariation=MLB21392652&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>Kit 3 Equalizador Balanceador Para Banco De Baterias - Jfa 12v/24v</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -680,7 +692,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>87.91</v>
+        <v>431</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -690,32 +702,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:46210092#searchVariation=MLB28961390&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/kit-3-equalizador-balanceador-para-banco-de-baterias-jfa-12v24v/p/MLB32314837?pdp_filters=seller_id:46210092#searchVariation=MLB32314837&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>634.4</v>
+        <v>87.91</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -725,30 +737,34 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:46210092#searchVariation=MLB21392652&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:46210092#searchVariation=MLB28961390&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>845.87</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -756,28 +772,28 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:46210092#searchVariation=MLB34210379&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:46210092#searchVariation=MLB21348561&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>845.87</v>
+        <v>364.95</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -791,34 +807,30 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:46210092#searchVariation=MLB21348561&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:46210092#searchVariation=MLB23456525&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>1211</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -831,7 +843,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:46210092#searchVariation=MLB23456525&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:46210092#searchVariation=MLB35970528&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
@@ -866,25 +878,29 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:46210092#searchVariation=MLB27156459&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:46210092#searchVariation=MLB27156459&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+          <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1287</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>1957</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -897,25 +913,29 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:46210092#searchVariation=MLB35970528&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=16e3aa64-d7d5-4943-9a12-413f8deb8804</t>
+          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:46210092#searchVariation=MLB27661251&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
+          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1957</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>1942</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -923,30 +943,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:46210092#searchVariation=MLB32974100&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=58715a62-4794-42ca-ac44-b5c5a253de0f</t>
+          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:46210092#searchVariation=MLB27462343&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=def26822-77e9-4338-bdff-4c21fa3ca854</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>1957</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -959,60 +983,60 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:46210092#searchVariation=MLB28687615&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=58715a62-4794-42ca-ac44-b5c5a253de0f</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:46210092#searchVariation=MLB32974100&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=def26822-77e9-4338-bdff-4c21fa3ca854</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Equalizador Para Banco De Baterias - Jfa</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>169.9</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>61.19</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3513500757-equalizador-para-banco-de-baterias-jfa-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58715a62-4794-42ca-ac44-b5c5a253de0f</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:46210092#searchVariation=MLB28687615&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=def26822-77e9-4338-bdff-4c21fa3ca854</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Equalizador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>169.9</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1020,12 +1044,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3519002057-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58715a62-4794-42ca-ac44-b5c5a253de0f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3513500757-equalizador-para-banco-de-baterias-jfa-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddef26822-77e9-4338-bdff-4c21fa3ca854</t>
         </is>
       </c>
     </row>
@@ -1060,27 +1084,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3593548605-fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58715a62-4794-42ca-ac44-b5c5a253de0f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3593548605-fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddef26822-77e9-4338-bdff-4c21fa3ca854</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>342.95</v>
+        <v>499.46</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1095,28 +1119,32 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546723221-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D58715a62-4794-42ca-ac44-b5c5a253de0f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3519002057-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddef26822-77e9-4338-bdff-4c21fa3ca854</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>90.78</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>364.95</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1126,25 +1154,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546900093-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9362bf9f-8689-4066-9d65-5a9fa0225f6e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546723221-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddef26822-77e9-4338-bdff-4c21fa3ca854</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>87.91</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>90.78</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1152,32 +1184,32 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173714376-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9362bf9f-8689-4066-9d65-5a9fa0225f6e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546900093-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6345e419-3ff0-41b6-b252-2b6e9440c755</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Caixa Bob Jfa Carregador 90a Bivolt</t>
+          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>443.07</v>
+        <v>87.91</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1192,7 +1224,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4628864714-fonte-caixa-bob-jfa-carregador-90a-bivolt-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9362bf9f-8689-4066-9d65-5a9fa0225f6e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4173714376-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6345e419-3ff0-41b6-b252-2b6e9440c755</t>
         </is>
       </c>
     </row>
@@ -1227,27 +1259,27 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3519051321-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9362bf9f-8689-4066-9d65-5a9fa0225f6e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3519051321-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6345e419-3ff0-41b6-b252-2b6e9440c755</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
+          <t>Fonte Caixa Bob Jfa Carregador 90a Bivolt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1333</v>
+        <v>443.07</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1262,7 +1294,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604554374-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9362bf9f-8689-4066-9d65-5a9fa0225f6e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4628864714-fonte-caixa-bob-jfa-carregador-90a-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6345e419-3ff0-41b6-b252-2b6e9440c755</t>
         </is>
       </c>
     </row>
@@ -1297,14 +1329,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4605018752-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4605018752-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>Inversor Jfa 5000w 48v 220v Senoidal 10000 Pico Lançamento</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1313,7 +1345,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>365</v>
+        <v>4785</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1323,30 +1355,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4314067940-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613314728-inversor-jfa-5000w-48v-220v-senoidal-10000-pico-lancamento-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Inversor Jfa 5000w 48v 220v Senoidal 10000 Pico Lançamento</t>
+          <t>Inversor Jfa 3000w  48v 220v Onda Senoidal Pura 6000w Pico</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4785</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>3045</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1354,30 +1390,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613314728-inversor-jfa-5000w-48v-220v-senoidal-10000-pico-lancamento-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660645337-inversor-jfa-3000w-48v-220v-onda-senoidal-pura-6000w-pico-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v Off-grid Senoidal Pura </t>
+          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1830</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>1333</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1385,19 +1425,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660404065-inversor-jfa-2000w-24v-220v-off-grid-senoidal-pura-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604554374-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Inversor Jfa 5000w 48v 220v Onda Senoidal Pura 10000 Pico</t>
+          <t>Inversor Jfa 5000w 24v 220v Onda Senoidal Pura 10000 Pico</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1406,7 +1446,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4639</v>
+        <v>4828</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1416,30 +1456,34 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613246052-inversor-jfa-5000w-48v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613534640-inversor-jfa-5000w-24v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 1000w 12v 110v Onda Senoidal Puro </t>
+          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1333</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>3114</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1452,14 +1496,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604532376-inversor-jfa-1000w-12v-110v-onda-senoidal-puro-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660529949-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Inversor Jfa 5000w 24v 220v Onda Senoidal Pura 10000 Pico</t>
+          <t>Inversor Jfa 5000w 48v 220v Onda Senoidal Pura 10000 Pico</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1468,7 +1512,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4828</v>
+        <v>4639</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1478,12 +1522,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613534640-inversor-jfa-5000w-24v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613246052-inversor-jfa-5000w-48v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
@@ -1495,13 +1539,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>2174</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1514,14 +1562,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659563041-inversor-jfa-2000w-12v-220v-onda-senoidal-pura-lancamento-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3659563041-inversor-jfa-2000w-12v-220v-onda-senoidal-pura-lancamento-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Inversor Off-grid Senoidal Pura 1500w - 12v - 127v Jfa</t>
+          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1530,7 +1578,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1913</v>
+        <v>365</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
@@ -1545,29 +1593,25 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604993590-inversor-off-grid-senoidal-pura-1500w-12v-127v-jfa-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4314067940-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 3000w  48v 220v</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3114</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>2992</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1575,19 +1619,19 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660529949-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660718009-inversor-jfa-off-grid-senoidal-pura-3000w-48v-220v-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v 4000w Pico Senoidal Pura </t>
+          <t xml:space="preserve">Inversor Jfa 3000w 48v/220v Onda Senoidal Pura Lançamento </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1596,7 +1640,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2096</v>
+        <v>3114</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
@@ -1611,25 +1655,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660469185-inversor-jfa-2000w-24v-220v-4000w-pico-senoidal-pura-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660671107-inversor-jfa-3000w-48v220v-onda-senoidal-pura-lancamento-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+          <t>Inversor Jfa 2000w 24v 127v Onda Senoidal Novo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2174</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>1957</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1637,19 +1685,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659627161-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De4f604e5-8ff2-42c2-91b0-99c5366c8be4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4610267938-inversor-jfa-2000w-24v-127v-onda-senoidal-novo-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Jfa 1000w 12v 220v</t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 5000w 24v 220v</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1658,7 +1706,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1333</v>
+        <v>4639</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1668,30 +1716,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658478655-inversor-onda-senoidal-jfa-1000w-12v-220v-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3661920303-inversor-jfa-off-grid-senoidal-pura-5000w-24v-220v-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>900</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>2174</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1704,29 +1756,25 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4631283716-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3659627161-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Inversor Onda Senoidal Jfa 1000w 12v 220v</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>1333</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1739,29 +1787,25 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4846575134-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658478655-inversor-onda-senoidal-jfa-1000w-12v-220v-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+          <t>Inversor Jfa Senoidal Off-grid 1000w 12v 220v</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>749.65</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>1287</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1774,29 +1818,25 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3762938133-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658477203-inversor-jfa-senoidal-off-grid-1000w-12v-220v-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Bivolt</t>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1809,23 +1849,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3735118197-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4631283716-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>674.6799999999999</v>
+        <v>845.87</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1844,25 +1884,29 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3758622709-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4846575134-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Equalizador Jfa Para Banco De Baterias </t>
+          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>188.78</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>749.65</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1875,25 +1919,29 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4392256152-equalizador-jfa-para-banco-de-baterias-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3762938133-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Bivolt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4828</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1906,23 +1954,23 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613494874-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3735118197-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>390.43</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1941,14 +1989,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3622207699-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Daa6ecb54-5d0b-4691-870c-ab76f28a474d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3758622709-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
+          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1957,7 +2005,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1865</v>
+        <v>4828</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -1972,29 +2020,25 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658614207-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613494874-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
+          <t>Inversor Off-grid Senoidal Pura 1500w - 12v - 127v Jfa</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2995</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>1913</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2007,27 +2051,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660516741-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604993590-inversor-off-grid-senoidal-pura-1500w-12v-127v-jfa-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 1000w 12v 120v Senoidal Puro </t>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1246</v>
+        <v>390.43</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2037,12 +2081,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604531320-inversor-jfa-1000w-12v-120v-senoidal-puro-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3622207699-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2102,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1913</v>
+        <v>1865</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
@@ -2068,34 +2112,30 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658600959-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658614207-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador 90a Caixa Bob Storm Bivolt</t>
+          <t>Inversor Jfa Onda Senoidal Pura 5000w 48v 220v 10000 Pico</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>4698</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2103,19 +2143,19 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4628824232-fonte-jfa-carregador-90a-caixa-bob-storm-bivolt-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3661925465-inversor-jfa-onda-senoidal-pura-5000w-48v-220v-10000-pico-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+          <t xml:space="preserve">Inversor Jfa 1000w 12v 110v Onda Senoidal Puro </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2124,7 +2164,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>66.2</v>
+        <v>1333</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -2134,30 +2174,34 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3498708933-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604532376-inversor-jfa-1000w-12v-110v-onda-senoidal-puro-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Off-grid 1000w 12v 220v</t>
+          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1246</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>2995</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2170,25 +2214,29 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658452089-inversor-jfa-senoidal-off-grid-1000w-12v-220v-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660516741-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa Senoidal Pura 1500w 12v 220v </t>
+          <t xml:space="preserve">Inversor Jfa 1000w 12v 120v Senoidal Puro </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1957</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>1246</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2201,25 +2249,29 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658538181-inversor-jfa-senoidal-pura-1500w-12v-220v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604531320-inversor-jfa-1000w-12v-120v-senoidal-puro-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+          <t xml:space="preserve">Inversor Jfa Onda Senoidal Pura 2000w 12v 127v </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>1957</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2227,34 +2279,30 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546924669-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3659283253-inversor-jfa-onda-senoidal-pura-2000w-12v-127v-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
+          <t>Inversor Jfa Senoidal Off-grid 1000w 12v 220v</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1913</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>1246</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2267,14 +2315,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604929342-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658452089-inversor-jfa-senoidal-off-grid-1000w-12v-220v-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2283,7 +2331,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>100.98</v>
+        <v>1913</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
@@ -2293,30 +2341,34 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173557934-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658600959-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w 24v 220v4000w Pico</t>
+          <t>Fonte Jfa Carregador 90a Caixa Bob Storm Bivolt</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2027</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>422.93</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2329,25 +2381,29 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660454165-inversor-jfa-off-grid-senoidal-pura-2000w-24v-220v4000w-pico-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4628824232-fonte-jfa-carregador-90a-caixa-bob-storm-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>78.91</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>100.98</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2355,34 +2411,30 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173662894-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546924669-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t xml:space="preserve">Inversor Jfa Senoidal Pura 1500w 12v 220v </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>1957</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2395,25 +2447,29 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4835436154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658538181-inversor-jfa-senoidal-pura-1500w-12v-220v-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>787.5</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>1913</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2426,27 +2482,27 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4631233456-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604929342-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador  Bivolt</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>624.33</v>
+        <v>100.98</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2456,30 +2512,34 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4775556458-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4173557934-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>78.91</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2492,25 +2552,29 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3498732993-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8675fe38-bb12-4335-88be-40f80be854e9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4173662894-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>805.59</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2518,34 +2582,30 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546876507-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4835436154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>787.5</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2558,23 +2618,23 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3762990307-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4631233456-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador  Bivolt</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>805.59</v>
+        <v>624.33</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2593,25 +2653,29 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4846626480-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4775556458-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4639</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>805.59</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2624,25 +2688,29 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613508580-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4835448078-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Inversor Jfa Onda Senoidal Pura 5000w 48v 220v 10000 Pico</t>
+          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4698</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>704.89</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2650,30 +2718,34 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3661925465-inversor-jfa-onda-senoidal-pura-5000w-48v-220v-10000-pico-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3762990307-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1957</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>805.59</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2686,14 +2758,14 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659639823-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4846626480-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 5000w 24v 220v</t>
+          <t xml:space="preserve">Equalizador Jfa Para Banco De Baterias </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2702,7 +2774,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4639</v>
+        <v>188.78</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
@@ -2712,30 +2784,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3661920303-inversor-jfa-off-grid-senoidal-pura-5000w-24v-220v-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4392256152-equalizador-jfa-para-banco-de-baterias-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa Off-grid Senoidal Pura 1500w 12v  127v </t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 24v - 127v</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1865</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>1957</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2743,34 +2819,30 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604994186-inversor-jfa-off-grid-senoidal-pura-1500w-12v-127v-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4610382764-inversor-jfa-off-grid-senoidal-pura-2000w-24v-127v-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 3000w  48v 127v 6000w Pico</t>
+          <t xml:space="preserve">Inversor Jfa Off-grid Senoidal Pura 1500w 12v  127v </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3114</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>1865</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2783,25 +2855,29 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660491143-inversor-jfa-senoidal-pura-3000w-48v-127v-6000w-pico-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604994186-inversor-jfa-off-grid-senoidal-pura-1500w-12v-127v-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 1500w 12v 220v Novidade</t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1865</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>1957</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2809,32 +2885,32 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658501179-inversor-jfa-senoidal-pura-1500w-12v-220v-novidade-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3659639823-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa Bob Storm 90a Bivolt Automático </t>
+          <t>Inversor Jfa Senoidal Pura 3000w  48v 127v 6000w Pico</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>443.07</v>
+        <v>3114</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2849,25 +2925,29 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438005978-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660491143-inversor-jfa-senoidal-pura-3000w-48v-127v-6000w-pico-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 5000w  48v 220v</t>
+          <t>Inversor Jfa 3000w  48v 220v -senoidal Pura 6000w Pico</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4639</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>3114</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2875,34 +2955,30 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613313594-inversor-jfa-off-grid-senoidal-pura-5000w-48v-220v-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99af61fc-2c20-41b4-a6a3-369dc67143b1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660642323-inversor-jfa-3000w-48v-220v-senoidal-pura-6000w-pico-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
+          <t>Inversor Jfa Senoidal Pura 1500w 12v 220v Novidade</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1246</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>1865</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2910,19 +2986,19 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604464584-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1e339ea-6743-47e8-9141-6ec4554644ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3658501179-inversor-jfa-senoidal-pura-1500w-12v-220v-novidade-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inversor Jfa 1000w 12v 220v Onda Senoidal Pura</t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 5000w  48v 220v</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2931,7 +3007,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1245</v>
+        <v>4639</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
@@ -2946,25 +3022,29 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658427329-inversor-jfa-1000w-12v-220v-onda-senoidal-pura-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1e339ea-6743-47e8-9141-6ec4554644ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613313594-inversor-jfa-off-grid-senoidal-pura-5000w-48v-220v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 3000w - 48v - 127v</t>
+          <t xml:space="preserve">Fonte Carregador Jfa Bob Storm 90a Bivolt Automático </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2792</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2972,32 +3052,32 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660478461-inversor-jfa-off-grid-senoidal-pura-3000w-48v-127v-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1e339ea-6743-47e8-9141-6ec4554644ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4438005978-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>390.43</v>
+        <v>1246</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3007,19 +3087,19 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4229575070-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1e339ea-6743-47e8-9141-6ec4554644ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4604464584-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Equalizador Para Banco De Baterias - Jfa</t>
+          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3028,12 +3108,12 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>165</v>
+        <v>4639</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3043,29 +3123,25 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3513538545-equalizador-para-banco-de-baterias-jfa-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db1e339ea-6743-47e8-9141-6ec4554644ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4613508580-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Inversor Jfa Off-grid Senoidal Pura 3000w - 48v - 127v</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>2792</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3073,32 +3149,32 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3623665729-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddac0b6eb-5886-4c3a-a61d-f710451ebaab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660478461-inversor-jfa-off-grid-senoidal-pura-3000w-48v-127v-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+          <t>Inversor Off-grid Senoidal Pura 2000w - 12v - 127v Jfa</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>539.74</v>
+        <v>1957</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3108,12 +3184,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546735301-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddac0b6eb-5886-4c3a-a61d-f710451ebaab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4608266814-inversor-off-grid-senoidal-pura-2000w-12v-127v-jfa-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
         </is>
       </c>
     </row>
@@ -3148,14 +3224,14 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546761133-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddac0b6eb-5886-4c3a-a61d-f710451ebaab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4229575070-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>Equalizador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3164,29 +3240,29 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>372</v>
+        <v>165</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3549015287-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddac0b6eb-5886-4c3a-a61d-f710451ebaab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3513538545-equalizador-para-banco-de-baterias-jfa-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3195,7 +3271,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>499.46</v>
+        <v>539.74</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3209,19 +3285,19 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4308666128-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddac0b6eb-5886-4c3a-a61d-f710451ebaab</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3623665729-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66dfb0d0-15a4-4c2a-9b3e-b69f1977990c</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3230,7 +3306,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>499.46</v>
+        <v>539.74</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3244,19 +3320,19 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3623642835-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8604aa18-b8aa-4a29-8dfe-a02256276d7e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546735301-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66dfb0d0-15a4-4c2a-9b3e-b69f1977990c</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3265,7 +3341,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>364.95</v>
+        <v>390.43</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3279,19 +3355,19 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4512521482-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8604aa18-b8aa-4a29-8dfe-a02256276d7e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3546761133-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66dfb0d0-15a4-4c2a-9b3e-b69f1977990c</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3300,7 +3376,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>66.2</v>
+        <v>372</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
@@ -3315,25 +3391,29 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546852783-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8604aa18-b8aa-4a29-8dfe-a02256276d7e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3549015287-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66dfb0d0-15a4-4c2a-9b3e-b69f1977990c</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>499.46</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3341,47 +3421,187 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173652628-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8604aa18-b8aa-4a29-8dfe-a02256276d7e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4308666128-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a83e46c-246a-44f1-bea2-e5ce6ac69d27</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>499.46</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3623642835-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a83e46c-246a-44f1-bea2-e5ce6ac69d27</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>364.95</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4512521482-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a83e46c-246a-44f1-bea2-e5ce6ac69d27</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546852783-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a83e46c-246a-44f1-bea2-e5ce6ac69d27</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173652628-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd2a0fb68-125d-443c-9fc7-3073028e5f11</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="C94" t="n">
         <v>364.95</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4229574640-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D83812871-b756-485b-b589-46200806a508</t>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4229574640-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd2a0fb68-125d-443c-9fc7-3073028e5f11</t>
         </is>
       </c>
     </row>

--- a/dados/motor.shop.xlsx
+++ b/dados/motor.shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,3135 +483,4446 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>499.46</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:46210092#searchVariation=MLB22144397&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:46210092#searchVariation=MLB21392652&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>624.33</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:46210092#searchVariation=MLB24834408&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:46210092#searchVariation=MLB21348561&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>78.91</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>499.46</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:46210092#searchVariation=MLB27685629&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:46210092#searchVariation=MLB22144397&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>422.93</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:46210092#searchVariation=MLB21562641&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:46210092#searchVariation=MLB24834408&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>90.78</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>422.93</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:46210092#searchVariation=MLB28557249&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:46210092#searchVariation=MLB21562641&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>634.4</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>78.91</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:46210092#searchVariation=MLB21392652&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:46210092#searchVariation=MLB27685629&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kit 3 Equalizador Balanceador Para Banco De Baterias - Jfa 12v/24v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>431</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>90.78</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-3-equalizador-balanceador-para-banco-de-baterias-jfa-12v24v/p/MLB32314837?pdp_filters=seller_id:46210092#searchVariation=MLB32314837&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:46210092#searchVariation=MLB28557249&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>87.91</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Kit 3 Equalizador Balanceador Para Banco De Baterias - Jfa 12v/24v</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>431</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:46210092#searchVariation=MLB28961390&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-3-equalizador-balanceador-para-banco-de-baterias-jfa-12v24v/p/MLB32314837?pdp_filters=seller_id:46210092#searchVariation=MLB32314837&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>845.87</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>87.91</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:46210092#searchVariation=MLB21348561&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:46210092#searchVariation=MLB28961390&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>364.95</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>61.19</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:46210092#searchVariation=MLB23456525&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:46210092#searchVariation=MLB34210379&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1211</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1865</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:46210092#searchVariation=MLB35970528&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:46210092#searchVariation=MLB27661251&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>624.33</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:46210092#searchVariation=MLB27156459&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:46210092#searchVariation=MLB27156459&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=95aecc0c-d9fd-4553-bbb7-9cd3307229c3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Pura Jfa 2000 W 12v 110v Pico 4000w</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1957</v>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000-w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:46210092#searchVariation=MLB27661251&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=0fb7e574-a7bb-4a01-a6a8-f9a8b4dff2f9</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:46210092#searchVariation=MLB27462343&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=c1ec751d-885d-41ce-91ca-4a1b5ba17572</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1942</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1212</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:46210092#searchVariation=MLB27462343&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=def26822-77e9-4338-bdff-4c21fa3ca854</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:46210092#searchVariation=MLB36113529&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=c1ec751d-885d-41ce-91ca-4a1b5ba17572</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>FONTE 200 MONO</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>1957</v>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>1903</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:46210092#searchVariation=MLB32974100&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=def26822-77e9-4338-bdff-4c21fa3ca854</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:46210092#searchVariation=MLB32974100&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=c1ec751d-885d-41ce-91ca-4a1b5ba17572</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>61.19</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:46210092#searchVariation=MLB28687615&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=def26822-77e9-4338-bdff-4c21fa3ca854</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:46210092#searchVariation=MLB35970528&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=c1ec751d-885d-41ce-91ca-4a1b5ba17572</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Equalizador Para Banco De Baterias - Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>169.9</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>61.19</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3513500757-equalizador-para-banco-de-baterias-jfa-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddef26822-77e9-4338-bdff-4c21fa3ca854</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:46210092#searchVariation=MLB28687615&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=c1ec751d-885d-41ce-91ca-4a1b5ba17572</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>694.8200000000001</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>364.94</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3593548605-fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddef26822-77e9-4338-bdff-4c21fa3ca854</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:46210092#searchVariation=MLB23456525&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=c1ec751d-885d-41ce-91ca-4a1b5ba17572</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>499.46</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Equalizador Para Banco De Baterias - Jfa</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3519002057-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddef26822-77e9-4338-bdff-4c21fa3ca854</t>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3513500757-equalizador-para-banco-de-baterias-jfa-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1ec751d-885d-41ce-91ca-4a1b5ba17572</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>364.95</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546723221-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddef26822-77e9-4338-bdff-4c21fa3ca854</t>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3593548605-fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1ec751d-885d-41ce-91ca-4a1b5ba17572</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>90.78</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>364.95</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546900093-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6345e419-3ff0-41b6-b252-2b6e9440c755</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546723221-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1ec751d-885d-41ce-91ca-4a1b5ba17572</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>87.91</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>499.46</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173714376-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6345e419-3ff0-41b6-b252-2b6e9440c755</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3519002057-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc1ec751d-885d-41ce-91ca-4a1b5ba17572</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>499.46</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>787.5</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3519051321-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6345e419-3ff0-41b6-b252-2b6e9440c755</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4631233456-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De606ceae-462a-4616-9d87-9f90f460bd01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Caixa Bob Jfa Carregador 90a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>443.07</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>90.78</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4628864714-fonte-caixa-bob-jfa-carregador-90a-bivolt-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6345e419-3ff0-41b6-b252-2b6e9440c755</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546900093-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De606ceae-462a-4616-9d87-9f90f460bd01</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1865</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 5000w 48v 220v Rack</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>7100</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4605018752-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4912032716-inversor-jfa-off-grid-senoidal-pura-5000w-48v-220v-rack-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De606ceae-462a-4616-9d87-9f90f460bd01</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Inversor Jfa 5000w 48v 220v Senoidal 10000 Pico Lançamento</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>4785</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>87.91</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613314728-inversor-jfa-5000w-48v-220v-senoidal-10000-pico-lancamento-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173714376-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De606ceae-462a-4616-9d87-9f90f460bd01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Inversor Jfa 3000w  48v 220v Onda Senoidal Pura 6000w Pico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>3045</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 5000w 24v 220v Onda Senoidal Pura 10000 Pico</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4828</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660645337-inversor-jfa-3000w-48v-220v-onda-senoidal-pura-6000w-pico-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613534640-inversor-jfa-5000w-24v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De606ceae-462a-4616-9d87-9f90f460bd01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1333</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Senoidal Pura 3000w  48v 127v 6000w Pico</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>3114</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604554374-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660491143-inversor-jfa-senoidal-pura-3000w-48v-127v-6000w-pico-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De606ceae-462a-4616-9d87-9f90f460bd01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Inversor Jfa 5000w 24v 220v Onda Senoidal Pura 10000 Pico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 5000w 48v 220v Onda Senoidal Pura 10000 Pico</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>4828</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+      <c r="E30" t="n">
+        <v>4639</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613534640-inversor-jfa-5000w-24v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613246052-inversor-jfa-5000w-48v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De606ceae-462a-4616-9d87-9f90f460bd01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>3114</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1865</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660529949-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4605018752-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Inversor Jfa 5000w 48v 220v Onda Senoidal Pura 10000 Pico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 5000w 48v 220v Senoidal 10000 Pico Lançamento</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>4639</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E32" t="n">
+        <v>4785</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613246052-inversor-jfa-5000w-48v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613314728-inversor-jfa-5000w-48v-220v-senoidal-10000-pico-lancamento-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Inversor Jfa 2000w 12v 220v Onda Senoidal Pura Lançamento</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>2174</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa 1000w 12v 120v Senoidal Puro </t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1246</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659563041-inversor-jfa-2000w-12v-220v-onda-senoidal-pura-lancamento-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604531320-inversor-jfa-1000w-12v-120v-senoidal-puro-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 5000w 48v 220v Rack Off-grid Senoidal</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>365</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E34" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4314067940-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4912135222-inversor-jfa-5000w-48v-220v-rack-off-grid-senoidal-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 3000w  48v 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>2992</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E35" t="n">
+        <v>365</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660718009-inversor-jfa-off-grid-senoidal-pura-3000w-48v-220v-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4314067940-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 3000w 48v/220v Onda Senoidal Pura Lançamento </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>3114</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 2000w 12v 220v Onda Senoidal Pura Lançamento</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2174</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660671107-inversor-jfa-3000w-48v220v-onda-senoidal-pura-lancamento-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3659563041-inversor-jfa-2000w-12v-220v-onda-senoidal-pura-lancamento-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Inversor Jfa 2000w 24v 127v Onda Senoidal Novo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1957</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa Off-grid Senoidal Pura 1500w 12v  127v </t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1865</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4610267938-inversor-jfa-2000w-24v-127v-onda-senoidal-novo-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604994186-inversor-jfa-off-grid-senoidal-pura-1500w-12v-127v-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 5000w 24v 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>4639</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E38" t="n">
+        <v>4828</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3661920303-inversor-jfa-off-grid-senoidal-pura-5000w-24v-220v-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da2c3b731-8d33-43f5-b449-b6f3c09ad12d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613494874-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>2174</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Onda Senoidal Pura 5000w 48v 220v 10000 Pico</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4698</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659627161-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3661925465-inversor-jfa-onda-senoidal-pura-5000w-48v-220v-10000-pico-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Jfa 1000w 12v 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1333</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>390.43</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658478655-inversor-onda-senoidal-jfa-1000w-12v-220v-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3622207699-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Off-grid 1000w 12v 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1287</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>499.46</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658477203-inversor-jfa-senoidal-off-grid-1000w-12v-220v-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3519051321-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa Senoidal Pura 1500w 12v 220v </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>900</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+      <c r="E42" t="n">
+        <v>1957</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4631283716-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658538181-inversor-jfa-senoidal-pura-1500w-12v-220v-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Inversor Off-grid Senoidal Pura 2000w - 12v - 127v Jfa</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E43" t="n">
+        <v>1957</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4846575134-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4608266814-inversor-off-grid-senoidal-pura-2000w-12v-127v-jfa-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>749.65</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v 4000w Pico Senoidal Pura </t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2096</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3762938133-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660469185-inversor-jfa-2000w-24v-220v-4000w-pico-senoidal-pura-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>694.8200000000001</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2174</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3735118197-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3659627161-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ef84618-9824-4a58-8be1-73bcdbc2dde7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E46" t="n">
+        <v>1333</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3758622709-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8fec1ad1-4f2e-4f7b-aa9a-f76fe8e6a5ca</t>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604554374-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa 3000w 48v/220v Onda Senoidal Pura Lançamento </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>4828</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="E47" t="n">
+        <v>3114</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613494874-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660671107-inversor-jfa-3000w-48v220v-onda-senoidal-pura-lancamento-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Inversor Off-grid Senoidal Pura 1500w - 12v - 127v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1913</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3114</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604993590-inversor-off-grid-senoidal-pura-1500w-12v-127v-jfa-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660529949-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>390.43</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Inversor Onda Senoidal Jfa 1000w 12v 220v</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1333</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3622207699-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658478655-inversor-onda-senoidal-jfa-1000w-12v-220v-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1865</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 3000w  48v 220v -senoidal Pura 6000w Pico</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3114</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658614207-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660642323-inversor-jfa-3000w-48v-220v-senoidal-pura-6000w-pico-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Inversor Jfa Onda Senoidal Pura 5000w 48v 220v 10000 Pico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>4698</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
+      <c r="E51" t="n">
+        <v>900</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3661925465-inversor-jfa-onda-senoidal-pura-5000w-48v-220v-10000-pico-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4631283716-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 1000w 12v 110v Onda Senoidal Puro </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1333</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>845.87</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604532376-inversor-jfa-1000w-12v-110v-onda-senoidal-puro-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4902837788-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>2995</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 24v - 127v</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1957</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660516741-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4610382764-inversor-jfa-off-grid-senoidal-pura-2000w-24v-127v-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa 1000w 12v 120v Senoidal Puro </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1246</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Senoidal Pura 1500w 12v 220v Novidade</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1814</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604531320-inversor-jfa-1000w-12v-120v-senoidal-puro-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658501179-inversor-jfa-senoidal-pura-1500w-12v-220v-novidade-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa Onda Senoidal Pura 2000w 12v 127v </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1957</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1865</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659283253-inversor-jfa-onda-senoidal-pura-2000w-12v-127v-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658614207-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Off-grid 1000w 12v 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1246</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Bivolt</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658452089-inversor-jfa-senoidal-off-grid-1000w-12v-220v-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3735118197-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa 1000w 12v 110v Onda Senoidal Puro </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>1913</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E57" t="n">
+        <v>1333</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658600959-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604532376-inversor-jfa-1000w-12v-110v-onda-senoidal-puro-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador 90a Caixa Bob Storm Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>422.93</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4628824232-fonte-jfa-carregador-90a-caixa-bob-storm-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3758622709-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>100.98</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Fonte E Carregador Automotiva Jfa Bob 200a Bivolt</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546924669-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4907566904-fonte-e-carregador-automotiva-jfa-bob-200a-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa Senoidal Pura 1500w 12v 220v </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1957</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658538181-inversor-jfa-senoidal-pura-1500w-12v-220v-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3762938133-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c4d28dd-3e73-41b6-b481-b539c14f7948</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1913</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Fonte Caixa Bob Jfa Carregador 90a Bivolt</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>443.07</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604929342-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4628864714-fonte-caixa-bob-jfa-carregador-90a-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df28aa655-e05e-4460-b5fc-0a1f327e7ab2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>100.98</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 3000w  48v 220v</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2813</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173557934-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6966f632-9b4b-4541-888d-4a0b4eb6f240</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660718009-inversor-jfa-off-grid-senoidal-pura-3000w-48v-220v-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df28aa655-e05e-4460-b5fc-0a1f327e7ab2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>78.91</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 3000w  48v 220v Onda Senoidal Pura 6000w Pico</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>3045</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173662894-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660645337-inversor-jfa-3000w-48v-220v-onda-senoidal-pura-6000w-pico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df28aa655-e05e-4460-b5fc-0a1f327e7ab2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>805.59</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4835436154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658600959-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df28aa655-e05e-4460-b5fc-0a1f327e7ab2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Inversor Off-grid Senoidal Pura 1500w - 12v - 127v Jfa</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>787.5</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E65" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4631233456-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604993590-inversor-off-grid-senoidal-pura-1500w-12v-127v-jfa-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df28aa655-e05e-4460-b5fc-0a1f327e7ab2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador  Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>624.33</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 2000w 24v 127v Onda Senoidal Novo</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1957</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4775556458-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4610267938-inversor-jfa-2000w-24v-127v-onda-senoidal-novo-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>805.59</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>100.98</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4835448078-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546924669-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>704.89</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Senoidal Off-grid 1000w 12v 220v</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1246</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3762990307-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658452089-inversor-jfa-senoidal-off-grid-1000w-12v-220v-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="E69" t="n">
         <v>805.59</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4846626480-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4835436154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Equalizador Jfa Para Banco De Baterias </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>188.78</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Carregador 90a Caixa Bob Storm Bivolt</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>422.93</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4392256152-equalizador-jfa-para-banco-de-baterias-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4628824232-fonte-jfa-carregador-90a-caixa-bob-storm-bivolt-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 24v - 127v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1957</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>100.98</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4610382764-inversor-jfa-off-grid-senoidal-pura-2000w-24v-127v-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173557934-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inversor Jfa Off-grid Senoidal Pura 1500w 12v  127v </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1865</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>66.2</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604994186-inversor-jfa-off-grid-senoidal-pura-1500w-12v-127v-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3498708933-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w 24v 220v4000w Pico</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>FONTE 200 MONO</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>1957</v>
-      </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F73" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3659639823-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660454165-inversor-jfa-off-grid-senoidal-pura-2000w-24v-220v4000w-pico-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 3000w  48v 127v 6000w Pico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>3114</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660491143-inversor-jfa-senoidal-pura-3000w-48v-127v-6000w-pico-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604929342-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Inversor Jfa 3000w  48v 220v -senoidal Pura 6000w Pico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>3114</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>78.91</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660642323-inversor-jfa-3000w-48v-220v-senoidal-pura-6000w-pico-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173662894-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 1500w 12v 220v Novidade</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid 5000w 48v 220v Rack Senoidal</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>1865</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+      <c r="E76" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3658501179-inversor-jfa-senoidal-pura-1500w-12v-220v-novidade-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D16f39281-f293-4da3-b840-72a73c352d67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4912034668-inversor-jfa-off-grid-5000w-48v-220v-rack-senoidal-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 5000w  48v 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>4639</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador  Bivolt</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>624.33</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613313594-inversor-jfa-off-grid-senoidal-pura-5000w-48v-220v-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4775556458-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7c239c94-8820-4868-9031-257942f87c85</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Jfa Bob Storm 90a Bivolt Automático </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>443.07</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 5000w 48v 220v Rack</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>6999</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4438005978-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4912107314-inversor-jfa-off-grid-senoidal-pura-5000w-48v-220v-rack-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D472ec7a9-d881-4ea2-8762-92c87d82c0a5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>1246</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>61.19</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4604464584-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3498732993-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D472ec7a9-d881-4ea2-8762-92c87d82c0a5</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>4639</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>66.2</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4613508580-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546876507-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D472ec7a9-d881-4ea2-8762-92c87d82c0a5</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Inversor Jfa Off-grid Senoidal Pura 3000w - 48v - 127v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>2792</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>634.4</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660478461-inversor-jfa-off-grid-senoidal-pura-3000w-48v-127v-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3762990307-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D472ec7a9-d881-4ea2-8762-92c87d82c0a5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Inversor Off-grid Senoidal Pura 2000w - 12v - 127v Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>1957</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 5000w  48v 220v</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>4639</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4608266814-inversor-off-grid-senoidal-pura-2000w-12v-127v-jfa-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613313594-inversor-jfa-off-grid-senoidal-pura-5000w-48v-220v-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D472ec7a9-d881-4ea2-8762-92c87d82c0a5</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>390.43</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v Off-grid Senoidal Pura </t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1830</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4229575070-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660404065-inversor-jfa-2000w-24v-220v-off-grid-senoidal-pura-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D472ec7a9-d881-4ea2-8762-92c87d82c0a5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Equalizador Para Banco De Baterias - Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>165</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>390.42</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3513538545-equalizador-para-banco-de-baterias-jfa-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7a34c1f4-02c9-4178-bbdc-b2313b10ca56</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4229575070-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D472ec7a9-d881-4ea2-8762-92c87d82c0a5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>539.74</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Equalizador Jfa Para Banco De Baterias </t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>188.78</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3623665729-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66dfb0d0-15a4-4c2a-9b3e-b69f1977990c</t>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4392256152-equalizador-jfa-para-banco-de-baterias-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D472ec7a9-d881-4ea2-8762-92c87d82c0a5</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>539.74</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Jfa Bob Storm 90a Bivolt Automático </t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546735301-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66dfb0d0-15a4-4c2a-9b3e-b69f1977990c</t>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438005978-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D472ec7a9-d881-4ea2-8762-92c87d82c0a5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>390.43</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1903</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546761133-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66dfb0d0-15a4-4c2a-9b3e-b69f1977990c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3659639823-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D472ec7a9-d881-4ea2-8762-92c87d82c0a5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 1000w 12v 220v Onda Senoidal Pura</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>372</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+      <c r="E88" t="n">
+        <v>1211</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3549015287-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66dfb0d0-15a4-4c2a-9b3e-b69f1977990c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658427329-inversor-jfa-1000w-12v-220v-onda-senoidal-pura-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D472ec7a9-d881-4ea2-8762-92c87d82c0a5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>499.46</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 5000w 24v 220v</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>4639</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4308666128-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a83e46c-246a-44f1-bea2-e5ce6ac69d27</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3661920303-inversor-jfa-off-grid-senoidal-pura-5000w-24v-220v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd9e57fd3-eda7-487a-bb70-05a76d76c3e4</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>499.46</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Inversor 3000w  48v 127v  Jfa Senoidal Pura 6000w Pico</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>2995</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3623642835-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a83e46c-246a-44f1-bea2-e5ce6ac69d27</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660516741-inversor-3000w-48v-127v-jfa-senoidal-pura-6000w-pico-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd9e57fd3-eda7-487a-bb70-05a76d76c3e4</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>364.95</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>4639</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4512521482-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a83e46c-246a-44f1-bea2-e5ce6ac69d27</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613508580-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd9e57fd3-eda7-487a-bb70-05a76d76c3e4</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>66.2</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 3000w - 48v - 127v</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>2792</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3546852783-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9a83e46c-246a-44f1-bea2-e5ce6ac69d27</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660478461-inversor-jfa-off-grid-senoidal-pura-3000w-48v-127v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd9e57fd3-eda7-487a-bb70-05a76d76c3e4</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>66.2</v>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Equalizador Para Banco De Baterias - Jfa</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>165</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4173652628-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd2a0fb68-125d-443c-9fc7-3073028e5f11</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3513538545-equalizador-para-banco-de-baterias-jfa-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd9e57fd3-eda7-487a-bb70-05a76d76c3e4</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>539.74</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546735301-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9f7f7bb2-89d7-4938-8787-85304bd32b91</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="E95" t="n">
+        <v>390.43</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546761133-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9f7f7bb2-89d7-4938-8787-85304bd32b91</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>372</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3549015287-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9f7f7bb2-89d7-4938-8787-85304bd32b91</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Kit 4 Equalizador Balanceador Jfa Para Banco De Baterias</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>640</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3600547673-kit-4-equalizador-balanceador-jfa-para-banco-de-baterias-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9f7f7bb2-89d7-4938-8787-85304bd32b91</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>499.46</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4308666128-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2fce39b7-d58d-40c6-a474-9de074067ee7</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>499.46</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3623642835-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2fce39b7-d58d-40c6-a474-9de074067ee7</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546852783-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc95ca96b-5908-406a-b062-1306866a9870</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173652628-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc95ca96b-5908-406a-b062-1306866a9870</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
         <v>364.95</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4229574640-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd2a0fb68-125d-443c-9fc7-3073028e5f11</t>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4229574640-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc95ca96b-5908-406a-b062-1306866a9870</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>539.74</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3623665729-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc95ca96b-5908-406a-b062-1306866a9870</t>
         </is>
       </c>
     </row>

--- a/dados/motor.shop.xlsx
+++ b/dados/motor.shop.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,4033 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>nome</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preco</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tipo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>78.91</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:46210092#wid=MLB3602669179&amp;sid=search&amp;searchVariation=MLB27685629&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:46210092#wid=MLB3677775203&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>653.42</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:46210092#wid=MLB3758621797&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:46210092#wid=MLB3596700309&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>514.4400000000001</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3519002057-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e061f8a-0515-40d2-ba3a-796d899832d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>514.4400000000001</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:46210092#wid=MLB3665199041&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Equalizador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3513500757-equalizador-para-banco-de-baterias-jfa-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e061f8a-0515-40d2-ba3a-796d899832d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>375.89</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546723221-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e061f8a-0515-40d2-ba3a-796d899832d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>715.66</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3593548605-fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ba1f407-76f7-474a-bd80-a664fd416df7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>829.75</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:46210092#wid=MLB3758679607&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>402.13</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3622207699-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ba1f407-76f7-474a-bd80-a664fd416df7</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 1000w Senoidal Puro 12v/127v</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1134</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-1000w-senoidal-puro-12v127v/p/MLB36113529?pdp_filters=seller_id:46210092#wid=MLB4902861742&amp;sid=search&amp;searchVariation=MLB36113529&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>87.91</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:46210092#wid=MLB3602645731&amp;sid=search&amp;searchVariation=MLB28961390&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>734.25</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4631233456-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ba1f407-76f7-474a-bd80-a664fd416df7</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 3000w  48v 220v</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2461</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660718009-inversor-jfa-off-grid-senoidal-pura-3000w-48v-220v-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8ba1f407-76f7-474a-bd80-a664fd416df7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>61.19</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:46210092#wid=MLB4514549728&amp;sid=search&amp;searchVariation=MLB34210379&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v Off-grid Senoidal Pura </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1830</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660404065-inversor-jfa-2000w-24v-220v-off-grid-senoidal-pura-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8a707e6-f6c7-44b9-9ff5-debec3b0ebe7</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Inversor Onda Senoidal Pura Jfa 2000W 12v 110v Pico 4000w</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1793</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-onda-senoidal-pura-jfa-2000w-12v-110v-pico-4000w/p/MLB27661251?pdp_filters=seller_id:46210092#wid=MLB3659347455&amp;sid=search&amp;searchVariation=MLB27661251&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>402.13</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4229575070-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8a707e6-f6c7-44b9-9ff5-debec3b0ebe7</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jfa Inversor 24v Para 110v Senoidal Pura 2000w Pico 4000w </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-inversor-24v-para-110v-senoidal-pura-2000w-pico-4000w/p/MLB27462343?pdp_filters=seller_id:46210092#wid=MLB4610255098&amp;sid=search&amp;searchVariation=MLB27462343&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 2000w 12/220v Senoidal Puro</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1912</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-2000w-12220v-senoidal-puro/p/MLB32974100?pdp_filters=seller_id:46210092#wid=MLB3659562863&amp;sid=search&amp;searchVariation=MLB32974100&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=843415a1-4175-4bee-96ed-98649fc4e47d</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>514.4400000000001</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3519051321-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8a707e6-f6c7-44b9-9ff5-debec3b0ebe7</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1118</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:46210092#wid=MLB3665907391&amp;sid=search&amp;searchVariation=MLB35970528&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=0e061f8a-0515-40d2-ba3a-796d899832d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Senoidal Pura 1500w 12v 220v Novidade</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1711</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658501179-inversor-jfa-senoidal-pura-1500w-12v-220v-novidade-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8a707e6-f6c7-44b9-9ff5-debec3b0ebe7</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1781</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3659639823-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8a707e6-f6c7-44b9-9ff5-debec3b0ebe7</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Inversor Senoidal Pura Jfa 3000w 48/220v Ger Rack</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4143</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-senoidal-pura-jfa-3000w-48220v-ger-rack/p/MLB31190967?pdp_filters=seller_id:46210092#wid=MLB3662196233&amp;sid=search&amp;searchVariation=MLB31190967&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=0e061f8a-0515-40d2-ba3a-796d899832d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Kit 3 Equalizador Balanceador Para Banco De Baterias - Jfa 12v/24v</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>495</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-3-equalizador-balanceador-para-banco-de-baterias-jfa-12v24v/p/MLB32314837?pdp_filters=seller_id:46210092#wid=MLB4433557328&amp;sid=search&amp;searchVariation=MLB32314837&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=0e061f8a-0515-40d2-ba3a-796d899832d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>87.91</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173714376-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8a707e6-f6c7-44b9-9ff5-debec3b0ebe7</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Inversor Senoidal Puro Jfa 1000w 12v 120v</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1533</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604554374-inversor-senoidal-puro-jfa-1000w-12v-120v-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8a707e6-f6c7-44b9-9ff5-debec3b0ebe7</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>375.89</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:46210092#wid=MLB4512470064&amp;sid=search&amp;searchVariation=MLB23456525&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=0e061f8a-0515-40d2-ba3a-796d899832d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Onda Senoidal Pura 3000w 48/220v Ger Rack</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4811</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3662089265-inversor-jfa-onda-senoidal-pura-3000w-48220v-ger-rack-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8a707e6-f6c7-44b9-9ff5-debec3b0ebe7</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:46210092#wid=MLB3593598909&amp;sid=search&amp;searchVariation=MLB27156459&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=0e061f8a-0515-40d2-ba3a-796d899832d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 2000w 12v 220v Onda Senoidal Pura Lançamento</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2124</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3659563041-inversor-jfa-2000w-12v-220v-onda-senoidal-pura-lancamento-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd8a707e6-f6c7-44b9-9ff5-debec3b0ebe7</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa Senoidal Pura 1500w 12v 220v </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658538181-inversor-jfa-senoidal-pura-1500w-12v-220v-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D582a00ff-931b-4ce3-b47d-0bdccbd3faa5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>61.19</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:46210092#wid=MLB3610862509&amp;sid=search&amp;searchVariation=MLB28687615&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=0e061f8a-0515-40d2-ba3a-796d899832d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w 24v 220v4000w Pico</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2330</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660454165-inversor-jfa-off-grid-senoidal-pura-2000w-24v-220v4000w-pico-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D582a00ff-931b-4ce3-b47d-0bdccbd3faa5</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2199</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658600959-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D582a00ff-931b-4ce3-b47d-0bdccbd3faa5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa 3000w 48v/220v Onda Senoidal Pura Lançamento </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3580</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660671107-inversor-jfa-3000w-48v220v-onda-senoidal-pura-lancamento-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D582a00ff-931b-4ce3-b47d-0bdccbd3faa5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>365</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4314067940-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D582a00ff-931b-4ce3-b47d-0bdccbd3faa5</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 12v - 220v</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2124</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3659627161-inversor-jfa-off-grid-senoidal-pura-2000w-12v-220v-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D582a00ff-931b-4ce3-b47d-0bdccbd3faa5</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 2000w 24v 220v Off-grid Senoidal Pura - 2 Unid</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4280</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3834499633-inversor-jfa-2000w-24v-220v-off-grid-senoidal-pura-2-unid-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D582a00ff-931b-4ce3-b47d-0bdccbd3faa5</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Inversor Onda Senoidal Jfa 1000w 12v 220v</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1533</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658478655-inversor-onda-senoidal-jfa-1000w-12v-220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D582a00ff-931b-4ce3-b47d-0bdccbd3faa5</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa Off-grid Senoidal Pura 1500w 12v  127v </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2144</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604994186-inversor-jfa-off-grid-senoidal-pura-1500w-12v-127v-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D582a00ff-931b-4ce3-b47d-0bdccbd3faa5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Inversor Onda Senoidal Pura Jfa 3000w 48/220v Ger Rack</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>5800</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3662150673-inversor-onda-senoidal-pura-jfa-3000w-48220v-ger-rack-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D582a00ff-931b-4ce3-b47d-0bdccbd3faa5</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Fonte Caixa Bob Jfa Carregador 90a Bivolt</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4628864714-fonte-caixa-bob-jfa-carregador-90a-bivolt-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D582a00ff-931b-4ce3-b47d-0bdccbd3faa5</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Off-grid Senoidal Pura 1500w - 12v - 220v Jfa </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2144</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658614207-inversor-off-grid-senoidal-pura-1500w-12v-220v-jfa-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a3746f1-6957-433b-a546-cebd6d31016a</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Bivolt</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>715.66</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3735118197-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a3746f1-6957-433b-a546-cebd6d31016a</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 2000w - 24v - 127v</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4610382764-inversor-jfa-off-grid-senoidal-pura-2000w-24v-127v-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a3746f1-6957-433b-a546-cebd6d31016a</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>871.24</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4902837788-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a3746f1-6957-433b-a546-cebd6d31016a</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Kit 5 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>900</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4631283716-kit-5-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a3746f1-6957-433b-a546-cebd6d31016a</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 3000w  48v 220v Onda Senoidal Pura 6000w Pico</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660645337-inversor-jfa-3000w-48v-220v-onda-senoidal-pura-6000w-pico-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a3746f1-6957-433b-a546-cebd6d31016a</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3762938133-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a3746f1-6957-433b-a546-cebd6d31016a</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Fonte E Carregador Automotiva Jfa Bob 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>715.66</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4907566904-fonte-e-carregador-automotiva-jfa-bob-200a-bivolt-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a3746f1-6957-433b-a546-cebd6d31016a</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3758622709-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a3746f1-6957-433b-a546-cebd6d31016a</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa 2000w 24v 220v 4000w Pico Senoidal Pura </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2410</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660469185-inversor-jfa-2000w-24v-220v-4000w-pico-senoidal-pura-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a3746f1-6957-433b-a546-cebd6d31016a</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Jfa Bob Storm 90a Bivolt Automático </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4438005978-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6a3746f1-6957-433b-a546-cebd6d31016a</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 2000w 24v 127v Onda Senoidal Novo</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4610267938-inversor-jfa-2000w-24v-127v-onda-senoidal-novo-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df20cc7c0-81f4-4cde-9231-3c0533b7fcc9</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>829.75</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4835436154-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df20cc7c0-81f4-4cde-9231-3c0533b7fcc9</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Senoidal Off-grid 1000w 12v 220v</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658452089-inversor-jfa-senoidal-off-grid-1000w-12v-220v-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df20cc7c0-81f4-4cde-9231-3c0533b7fcc9</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 3000w  48v 220v -senoidal Pura 6000w Pico</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3580</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660642323-inversor-jfa-3000w-48v-220v-senoidal-pura-6000w-pico-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df20cc7c0-81f4-4cde-9231-3c0533b7fcc9</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Carregador 90a Caixa Bob Storm Bivolt</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>458.55</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4628824232-fonte-jfa-carregador-90a-caixa-bob-storm-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df20cc7c0-81f4-4cde-9231-3c0533b7fcc9</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2199</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604929342-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Controle De Longa Distância Jfa Acqua 1200m Branco</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>78.91</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173662894-controle-de-longa-distncia-jfa-acqua-1200m-branco-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Inversor Senoidal Pura Jfa 3000w 48/220v Ger Rack</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>5660</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3662187877-inversor-senoidal-pura-jfa-3000w-48220v-ger-rack-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3498708933-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>5550</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613494874-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546876507-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distância Jfa K1200 1200m Vermelho </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>61.19</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3498732993-controle-longa-distncia-jfa-k1200-1200m-vermelho-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador  Bivolt</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4775556458-fonte-automotiva-jfa-storm-200a-bob-carregador-bivolt-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Fonte E Carregador Jfa 120a Storm Digital Cca</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>653.42</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3762990307-fonte-e-carregador-jfa-120a-storm-digital-cca-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Inversor Onda Senoidal Jfa 1500w 12v 120v</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2144</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4605018752-inversor-onda-senoidal-jfa-1500w-12v-120v-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Inversor Off-grid Senoidal Pura 2000w - 12v - 127v Jfa</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4608266814-inversor-off-grid-senoidal-pura-2000w-12v-127v-jfa-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa 1000w 12v 110v Onda Senoidal Puro </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1533</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604532376-inversor-jfa-1000w-12v-110v-onda-senoidal-puro-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04e4e036-930b-44dd-a44c-514a0ffe1b90</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 5000w 24v 220v Onda Senoidal Pura 10000 Pico</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>5550</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613534640-inversor-jfa-5000w-24v-220v-onda-senoidal-pura-10000-pico-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3ae536f4-0e7b-41cf-9e1a-0a1f3545eb42</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inversor Jfa 1000w 12v 120v Senoidal Puro </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604531320-inversor-jfa-1000w-12v-120v-senoidal-puro-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3ae536f4-0e7b-41cf-9e1a-0a1f3545eb42</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Equalizador Jfa Para Banco De Baterias </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>188.78</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4392256152-equalizador-jfa-para-banco-de-baterias-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3ae536f4-0e7b-41cf-9e1a-0a1f3545eb42</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 1000w 12v 220v Onda Senoidal Pura</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1217</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3658427329-inversor-jfa-1000w-12v-220v-onda-senoidal-pura-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3ae536f4-0e7b-41cf-9e1a-0a1f3545eb42</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Off-grid Senoidal Pura 5000w 24v 220v</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>5333</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3661920303-inversor-jfa-off-grid-senoidal-pura-5000w-24v-220v-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3ae536f4-0e7b-41cf-9e1a-0a1f3545eb42</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Inversor Off-grid Senoidal Pura 1500w - 12v - 127v Jfa</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2199</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4604993590-inversor-off-grid-senoidal-pura-1500w-12v-127v-jfa-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3ae536f4-0e7b-41cf-9e1a-0a1f3545eb42</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Inversor Jfa Senoidal Pura 5000w 24v 220v 10000 Pico</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>5333</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4613508580-inversor-jfa-senoidal-pura-5000w-24v-220v-10000-pico-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3ae536f4-0e7b-41cf-9e1a-0a1f3545eb42</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Equalizador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3513538545-equalizador-para-banco-de-baterias-jfa-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cbd47c0-93eb-482d-84da-fb539d788340</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>375.89</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4229574640-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cbd47c0-93eb-482d-84da-fb539d788340</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>555.9299999999999</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546735301-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cbd47c0-93eb-482d-84da-fb539d788340</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>555.9299999999999</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3623665729-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cbd47c0-93eb-482d-84da-fb539d788340</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>514.4400000000001</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3623642835-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cbd47c0-93eb-482d-84da-fb539d788340</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>402.13</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546761133-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0cbd47c0-93eb-482d-84da-fb539d788340</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Kit 4 Equalizador Balanceador Jfa Para Banco De Baterias</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>640</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3600547673-kit-4-equalizador-balanceador-jfa-para-banco-de-baterias-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfff509eb-3514-4b6c-ace5-a83189366f9c</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Bob Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>514.4400000000001</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4308666128-fonte-carregador-automotivo-jfa-120a-bob-bivolt-automatico-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfff509eb-3514-4b6c-ace5-a83189366f9c</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Kit 2 Equalizador Balanceador Para Banco De Baterias - Jfa</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>372</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3549015287-kit-2-equalizador-balanceador-para-banco-de-baterias-jfa-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D60d05b46-d90a-43ea-8442-646d3f2130db</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3546852783-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D60d05b46-d90a-43ea-8442-646d3f2130db</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>motor.shop</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4173652628-controle-remoto-universal-longa-distncia-jfa-k1200-preto-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D60d05b46-d90a-43ea-8442-646d3f2130db</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>